--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hcrt-Hcrtr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hcrt-Hcrtr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Hcrt</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.060915</v>
+        <v>0.1263503333333333</v>
       </c>
       <c r="H2">
-        <v>0.182745</v>
+        <v>0.379051</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.270579862429723</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.270579862429723</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2307173333333333</v>
+        <v>0.4760353333333334</v>
       </c>
       <c r="N2">
-        <v>0.692152</v>
+        <v>1.428106</v>
       </c>
       <c r="O2">
-        <v>0.5496864616225214</v>
+        <v>0.6513037878622039</v>
       </c>
       <c r="P2">
-        <v>0.5496864616225213</v>
+        <v>0.6513037878622038</v>
       </c>
       <c r="Q2">
-        <v>0.01405414636</v>
+        <v>0.06014722304511112</v>
       </c>
       <c r="R2">
-        <v>0.12648731724</v>
+        <v>0.5413250074060001</v>
       </c>
       <c r="S2">
-        <v>0.5496864616225214</v>
+        <v>0.1762296893197126</v>
       </c>
       <c r="T2">
-        <v>0.5496864616225213</v>
+        <v>0.1762296893197126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.060915</v>
+        <v>0.1263503333333333</v>
       </c>
       <c r="H3">
-        <v>0.182745</v>
+        <v>0.379051</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.270579862429723</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.270579862429723</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +623,22 @@
         <v>0.06757100000000001</v>
       </c>
       <c r="O3">
-        <v>0.05366287159221587</v>
+        <v>0.03081651379494028</v>
       </c>
       <c r="P3">
-        <v>0.05366287159221586</v>
+        <v>0.03081651379494027</v>
       </c>
       <c r="Q3">
-        <v>0.001372029155</v>
+        <v>0.002845872791222222</v>
       </c>
       <c r="R3">
-        <v>0.012348262395</v>
+        <v>0.02561285512100001</v>
       </c>
       <c r="S3">
-        <v>0.05366287159221587</v>
+        <v>0.0083383280631986</v>
       </c>
       <c r="T3">
-        <v>0.05366287159221586</v>
+        <v>0.008338328063198598</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,46 +661,418 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.060915</v>
+        <v>0.1263503333333333</v>
       </c>
       <c r="H4">
-        <v>0.182745</v>
+        <v>0.379051</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.270579862429723</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.270579862429723</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.232337</v>
+      </c>
+      <c r="N4">
+        <v>0.697011</v>
+      </c>
+      <c r="O4">
+        <v>0.3178796983428559</v>
+      </c>
+      <c r="P4">
+        <v>0.3178796983428558</v>
+      </c>
+      <c r="Q4">
+        <v>0.02935585739566667</v>
+      </c>
+      <c r="R4">
+        <v>0.264202716561</v>
+      </c>
+      <c r="S4">
+        <v>0.08601184504681179</v>
+      </c>
+      <c r="T4">
+        <v>0.08601184504681178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.2143626666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.6430880000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.4590587086439706</v>
+      </c>
+      <c r="J5">
+        <v>0.4590587086439706</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.4760353333333334</v>
+      </c>
+      <c r="N5">
+        <v>1.428106</v>
+      </c>
+      <c r="O5">
+        <v>0.6513037878622039</v>
+      </c>
+      <c r="P5">
+        <v>0.6513037878622038</v>
+      </c>
+      <c r="Q5">
+        <v>0.1020442034808889</v>
+      </c>
+      <c r="R5">
+        <v>0.9183978313280002</v>
+      </c>
+      <c r="S5">
+        <v>0.2989866757909499</v>
+      </c>
+      <c r="T5">
+        <v>0.2989866757909498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.2143626666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.6430880000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.4590587086439706</v>
+      </c>
+      <c r="J6">
+        <v>0.4590587086439706</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M4">
-        <v>0.1664843333333333</v>
-      </c>
-      <c r="N4">
-        <v>0.499453</v>
-      </c>
-      <c r="O4">
-        <v>0.3966506667852627</v>
-      </c>
-      <c r="P4">
-        <v>0.3966506667852627</v>
-      </c>
-      <c r="Q4">
-        <v>0.010141393165</v>
-      </c>
-      <c r="R4">
-        <v>0.09127253848499998</v>
-      </c>
-      <c r="S4">
-        <v>0.3966506667852627</v>
-      </c>
-      <c r="T4">
-        <v>0.3966506667852627</v>
+      <c r="M6">
+        <v>0.02252366666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.06757100000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.03081651379494028</v>
+      </c>
+      <c r="P6">
+        <v>0.03081651379494027</v>
+      </c>
+      <c r="Q6">
+        <v>0.004828233249777779</v>
+      </c>
+      <c r="R6">
+        <v>0.04345409924800001</v>
+      </c>
+      <c r="S6">
+        <v>0.01414658902761439</v>
+      </c>
+      <c r="T6">
+        <v>0.01414658902761439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.2143626666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.6430880000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.4590587086439706</v>
+      </c>
+      <c r="J7">
+        <v>0.4590587086439706</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.232337</v>
+      </c>
+      <c r="N7">
+        <v>0.697011</v>
+      </c>
+      <c r="O7">
+        <v>0.3178796983428559</v>
+      </c>
+      <c r="P7">
+        <v>0.3178796983428558</v>
+      </c>
+      <c r="Q7">
+        <v>0.04980437888533334</v>
+      </c>
+      <c r="R7">
+        <v>0.4482394099680001</v>
+      </c>
+      <c r="S7">
+        <v>0.1459254438254063</v>
+      </c>
+      <c r="T7">
+        <v>0.1459254438254063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1262483333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.378745</v>
+      </c>
+      <c r="I8">
+        <v>0.2703614289263065</v>
+      </c>
+      <c r="J8">
+        <v>0.2703614289263065</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.4760353333333334</v>
+      </c>
+      <c r="N8">
+        <v>1.428106</v>
+      </c>
+      <c r="O8">
+        <v>0.6513037878622039</v>
+      </c>
+      <c r="P8">
+        <v>0.6513037878622038</v>
+      </c>
+      <c r="Q8">
+        <v>0.06009866744111111</v>
+      </c>
+      <c r="R8">
+        <v>0.5408880069700001</v>
+      </c>
+      <c r="S8">
+        <v>0.1760874227515414</v>
+      </c>
+      <c r="T8">
+        <v>0.1760874227515414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1262483333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.378745</v>
+      </c>
+      <c r="I9">
+        <v>0.2703614289263065</v>
+      </c>
+      <c r="J9">
+        <v>0.2703614289263065</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.02252366666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.06757100000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.03081651379494028</v>
+      </c>
+      <c r="P9">
+        <v>0.03081651379494027</v>
+      </c>
+      <c r="Q9">
+        <v>0.002843575377222222</v>
+      </c>
+      <c r="R9">
+        <v>0.025592178395</v>
+      </c>
+      <c r="S9">
+        <v>0.00833159670412729</v>
+      </c>
+      <c r="T9">
+        <v>0.00833159670412729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1262483333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.378745</v>
+      </c>
+      <c r="I10">
+        <v>0.2703614289263065</v>
+      </c>
+      <c r="J10">
+        <v>0.2703614289263065</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.232337</v>
+      </c>
+      <c r="N10">
+        <v>0.697011</v>
+      </c>
+      <c r="O10">
+        <v>0.3178796983428559</v>
+      </c>
+      <c r="P10">
+        <v>0.3178796983428558</v>
+      </c>
+      <c r="Q10">
+        <v>0.02933215902166666</v>
+      </c>
+      <c r="R10">
+        <v>0.263989431195</v>
+      </c>
+      <c r="S10">
+        <v>0.08594240947063778</v>
+      </c>
+      <c r="T10">
+        <v>0.08594240947063779</v>
       </c>
     </row>
   </sheetData>
